--- a/Teknik Informatika_Aris Setyawan_2021_2022 - Genap_6C.xlsx
+++ b/Teknik Informatika_Aris Setyawan_2021_2022 - Genap_6C.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">MOH ADIB LAZWAR IRKHAMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">MEYFANDI ARDANIAWAN</t>
@@ -149,13 +152,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -170,6 +172,83 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <family val="0"/>
     </font>
     <font>
@@ -178,18 +257,59 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -197,8 +317,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -222,17 +357,68 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -241,14 +427,91 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -259,8 +522,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -393,119 +656,119 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>19090063</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="n">
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="n">
+      <c r="G5" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>19090023</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="G6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="n">
+      <c r="G6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>19090001</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="n">
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="n">
+      <c r="G7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>19090051</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="n">
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="G8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="n">
+      <c r="G8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -538,148 +801,148 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>19090026</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="n">
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="G10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="n">
+      <c r="G10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="n">
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>19090100</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="n">
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="n">
+      <c r="G11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>19090038</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="n">
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="G12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="n">
+      <c r="G12" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H12" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>19090035</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="n">
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="G13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="n">
+      <c r="G13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>19090124</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="n">
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="n">
+      <c r="G14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -712,61 +975,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>19090021</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="n">
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3" t="n">
+      <c r="G16" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="I16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>19090116</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="n">
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="G17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="n">
+      <c r="G17" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1" t="n">
         <v>-0.3</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -799,90 +1062,90 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>19090092</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="n">
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="G19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="n">
+      <c r="G19" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H19" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>19090034</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="n">
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="G20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="n">
+      <c r="G20" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H20" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="2" t="n">
         <v>19090065</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="n">
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="n">
+      <c r="G21" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H21" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -944,61 +1207,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+    <row r="24" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="2" t="n">
         <v>19090089</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="n">
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="G24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="n">
+      <c r="G24" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="I24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="2" t="n">
         <v>19090131</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3" t="n">
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3" t="n">
+      <c r="G25" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H25" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1060,61 +1323,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+    <row r="28" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="2" t="n">
         <v>19090073</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3" t="n">
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="G28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3" t="n">
+      <c r="G28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="0" t="n">
+      <c r="I28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2" t="n">
         <v>19090106</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="n">
+      <c r="C29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="G29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="n">
+      <c r="G29" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1126,7 +1389,7 @@
         <v>19090134</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>0</v>
@@ -1155,7 +1418,7 @@
         <v>18090078</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>0</v>
